--- a/data/gihun/dataset/강원도출산율모델.xlsx
+++ b/data/gihun/dataset/강원도출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.4660633484162896</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>663</v>
       </c>
       <c r="F81" t="n">
         <v>76.379</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.003892747908317049</v>
+      </c>
       <c r="H81" t="n">
         <v>71.3</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.599025974025974</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>616</v>
       </c>
       <c r="F82" t="n">
         <v>76.379</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.003871967157229782</v>
+      </c>
       <c r="H82" t="n">
         <v>71.5</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.4716732542819499</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>759</v>
       </c>
       <c r="F83" t="n">
         <v>76.831</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.003851186406142515</v>
+      </c>
       <c r="H83" t="n">
         <v>71.90000000000001</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.4395924308588064</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>687</v>
       </c>
       <c r="F84" t="n">
         <v>76.982</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.003830405655055248</v>
+      </c>
       <c r="H84" t="n">
         <v>72.2</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.410757946210269</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>818</v>
       </c>
       <c r="F85" t="n">
         <v>77.057</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.003809624903967981</v>
+      </c>
       <c r="H85" t="n">
         <v>72.2</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.4181389870435807</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>849</v>
       </c>
       <c r="F86" t="n">
         <v>76.90600000000001</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.003788844152880713</v>
+      </c>
       <c r="H86" t="n">
         <v>72.2</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.5293132328308208</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>597</v>
       </c>
       <c r="F87" t="n">
         <v>77.208</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.003768063401793446</v>
+      </c>
       <c r="H87" t="n">
         <v>72.2</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.6704980842911877</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>522</v>
       </c>
       <c r="F88" t="n">
         <v>77.65900000000001</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.003747282650706178</v>
+      </c>
       <c r="H88" t="n">
         <v>71.90000000000001</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.623352165725047</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>531</v>
       </c>
       <c r="F89" t="n">
         <v>77.735</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.003726501899618911</v>
+      </c>
       <c r="H89" t="n">
         <v>72</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.5737704918032787</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>610</v>
       </c>
       <c r="F90" t="n">
         <v>77.282</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.003705721148531644</v>
+      </c>
       <c r="H90" t="n">
         <v>72.09999999999999</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.3613348676639816</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>869</v>
       </c>
       <c r="F91" t="n">
         <v>76.90600000000001</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.003684940397444377</v>
+      </c>
       <c r="H91" t="n">
         <v>72.3</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.243801652892562</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>1210</v>
       </c>
       <c r="F92" t="n">
         <v>77.131</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.003664159646357109</v>
+      </c>
       <c r="H92" t="n">
         <v>71.3</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.4149286498353458</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>911</v>
       </c>
       <c r="F93" t="n">
         <v>77.208</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.003643378895269842</v>
+      </c>
       <c r="H93" t="n">
         <v>71.2</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.4984375</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>9.924999999999999</v>
+      </c>
       <c r="E94" t="n">
         <v>640</v>
       </c>
       <c r="F94" t="n">
         <v>77.65900000000001</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.003623929356866022</v>
+      </c>
       <c r="H94" t="n">
         <v>71.09999999999999</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.4904270986745213</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>10.25</v>
+      </c>
       <c r="E95" t="n">
         <v>679</v>
       </c>
       <c r="F95" t="n">
         <v>78.262</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.003604479818462201</v>
+      </c>
       <c r="H95" t="n">
         <v>71.2</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.4067567567567568</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>10.575</v>
+      </c>
       <c r="E96" t="n">
         <v>740</v>
       </c>
       <c r="F96" t="n">
         <v>78.488</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.00358503028005838</v>
+      </c>
       <c r="H96" t="n">
         <v>71.7</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.3603603603603603</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>10.9</v>
+      </c>
       <c r="E97" t="n">
         <v>888</v>
       </c>
       <c r="F97" t="n">
         <v>78.714</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.003565580741654559</v>
+      </c>
       <c r="H97" t="n">
         <v>71.59999999999999</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.4471428571428571</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>11.225</v>
+      </c>
       <c r="E98" t="n">
         <v>700</v>
       </c>
       <c r="F98" t="n">
         <v>78.714</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.003546131203250738</v>
+      </c>
       <c r="H98" t="n">
         <v>71.5</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.488619119878604</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>11.55</v>
+      </c>
       <c r="E99" t="n">
         <v>659</v>
       </c>
       <c r="F99" t="n">
         <v>79.015</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.003526681664846917</v>
+      </c>
       <c r="H99" t="n">
         <v>71.40000000000001</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.4967637540453074</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>11.875</v>
+      </c>
       <c r="E100" t="n">
         <v>618</v>
       </c>
       <c r="F100" t="n">
         <v>79.015</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003507232126443097</v>
+      </c>
       <c r="H100" t="n">
         <v>71.3</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.5723404255319149</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>12.2</v>
+      </c>
       <c r="E101" t="n">
         <v>470</v>
       </c>
       <c r="F101" t="n">
         <v>79.39100000000001</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.003487782588039276</v>
+      </c>
       <c r="H101" t="n">
         <v>71.3</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.4746478873239436</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>12.525</v>
+      </c>
       <c r="E102" t="n">
         <v>710</v>
       </c>
       <c r="F102" t="n">
         <v>79.61799999999999</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.003468333049635455</v>
+      </c>
       <c r="H102" t="n">
         <v>71.2</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3242320819112628</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>12.85</v>
+      </c>
       <c r="E103" t="n">
         <v>879</v>
       </c>
       <c r="F103" t="n">
         <v>79.768</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.003448883511231635</v>
+      </c>
       <c r="H103" t="n">
         <v>71.2</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.3223938223938224</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>13.175</v>
+      </c>
       <c r="E104" t="n">
         <v>1036</v>
       </c>
       <c r="F104" t="n">
         <v>80.14400000000001</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003429433972827813</v>
+      </c>
       <c r="H104" t="n">
         <v>71.09999999999999</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>105.37</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.001642646091558776</v>
+      </c>
       <c r="H273" t="n">
         <v>102.9</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>106.04</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.001642646091558776</v>
+      </c>
       <c r="H274" t="n">
         <v>103.1</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>107.07</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.001642646091558776</v>
+      </c>
       <c r="H275" t="n">
         <v>103.3</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>108.23</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.001642646091558776</v>
+      </c>
       <c r="H276" t="n">
         <v>103.5</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>109.04</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.001642646091558776</v>
+      </c>
       <c r="H277" t="n">
         <v>103.7</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>109.77</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.001642646091558776</v>
+      </c>
       <c r="H278" t="n">
         <v>103.8</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>110.27</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.001642646091558776</v>
+      </c>
       <c r="H279" t="n">
         <v>103.8</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>109.97</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.001642646091558776</v>
+      </c>
       <c r="H280" t="n">
         <v>103.8</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>110.39</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.001642646091558776</v>
+      </c>
       <c r="H281" t="n">
         <v>103.6</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>110.55</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.001642646091558776</v>
+      </c>
       <c r="H282" t="n">
         <v>102.9</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>110.43</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.001642646091558776</v>
+      </c>
       <c r="H283" t="n">
         <v>102.1</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>22.8</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>110.66</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.001642646091558776</v>
+      </c>
       <c r="H284" t="n">
         <v>101.4</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>111.58</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.001642646091558776</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
